--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -10,19 +10,20 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
-      <name val="Noto Sans CJK KR"/>
-      <charset val="1"/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
       <family val="2"/>
-      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -37,12 +38,6 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -65,7 +60,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -73,22 +68,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="general" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -459,187 +448,2353 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="E1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.56640625" defaultRowHeight="18.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Midterm</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Finalterm</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>HW</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>Attendance</t>
-        </is>
-      </c>
-      <c r="G1" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" s="3">
-      <c r="A2" s="5" t="n">
+    <row r="1" ht="18.75" customHeight="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>midtern</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>homework</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>attendance</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="2">
+      <c r="A2" s="3" t="n">
         <v>20140001</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="2">
+      <c r="A3" s="3" t="n">
+        <v>20140002</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>55.81999999999999</v>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="2">
+      <c r="A4" s="3" t="n">
+        <v>20140003</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>37.54</v>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="2">
+      <c r="A5" s="3" t="n">
+        <v>20140004</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Olivia</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>84.67999999999999</v>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="2">
+      <c r="A6" s="3" t="n">
+        <v>20140005</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Amelia</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="2">
+      <c r="A7" s="3" t="n">
+        <v>20150001</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Isla</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>35.32</v>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="2">
+      <c r="A8" s="3" t="n">
+        <v>20150003</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>61.31</v>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="2">
+      <c r="A9" s="3" t="n">
+        <v>20150005</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Ava</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>56.94</v>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="2">
+      <c r="A10" s="3" t="n">
+        <v>20150007</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Sophie</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>54.65999999999999</v>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="2">
+      <c r="A11" s="3" t="n">
+        <v>20150009</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Chloe</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="2">
+      <c r="A12" s="3" t="n">
+        <v>20150011</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="2">
+      <c r="A13" s="3" t="n">
+        <v>20150013</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Ella</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>76.45999999999999</v>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="2">
+      <c r="A14" s="3" t="n">
+        <v>20150015</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Amie</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="2">
+      <c r="A15" s="3" t="n">
+        <v>20150017</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Mia</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>65.74999999999999</v>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="2">
+      <c r="A16" s="3" t="n">
+        <v>20150019</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Evie</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>72.84999999999999</v>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="2">
+      <c r="A17" s="3" t="n">
+        <v>20150021</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>59.56999999999999</v>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="2">
+      <c r="A18" s="3" t="n">
+        <v>20150023</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>48.07</v>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="2">
+      <c r="A19" s="3" t="n">
+        <v>20150025</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Grace</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="2">
+      <c r="A20" s="3" t="n">
+        <v>20150027</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Emma+</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>76.86999999999999</v>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="2">
+      <c r="A21" s="3" t="n">
+        <v>20150029</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>57.83999999999999</v>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="2">
+      <c r="A22" s="3" t="n">
+        <v>20161001</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Ruby</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>57.19</v>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="2">
+      <c r="A23" s="3" t="n">
+        <v>20161002</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>48.92999999999999</v>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="2">
+      <c r="A24" s="3" t="n">
+        <v>20161003</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Freya</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>37.39999999999999</v>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="2">
+      <c r="A25" s="3" t="n">
+        <v>20161004</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Molly</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="n">
+      <c r="D25" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="2">
+      <c r="A26" s="3" t="n">
+        <v>20161005</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Scarlett</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>73.19999999999999</v>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="2">
+      <c r="A27" s="3" t="n">
+        <v>20161006</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>42.66999999999999</v>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="2">
+      <c r="A28" s="3" t="n">
+        <v>20161007</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Abigail</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>37.06</v>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="2">
+      <c r="A29" s="3" t="n">
+        <v>20161008</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Phoebe</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="2">
+      <c r="A30" s="3" t="n">
+        <v>20161009</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Nur</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="2">
+      <c r="A31" s="3" t="n">
+        <v>20161010</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>82.51000000000001</v>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="2">
+      <c r="A32" s="3" t="n">
+        <v>20161011</v>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="2">
+      <c r="A33" s="3" t="n">
+        <v>20161012</v>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I33" s="3" t="n"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="2">
+      <c r="A34" s="3" t="n">
+        <v>20161013</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Florence</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>67.98</v>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="n"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="2">
+      <c r="A35" s="3" t="n">
+        <v>20161014</v>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Ellie</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I35" s="3" t="n"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="2">
+      <c r="A36" s="3" t="n">
+        <v>20161015</v>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Maryam</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="n"/>
+    </row>
+    <row r="37" ht="15" customHeight="1" s="2">
+      <c r="A37" s="3" t="n">
+        <v>20161016</v>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Erin</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>49.44</v>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="n"/>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="2">
+      <c r="A38" s="3" t="n">
+        <v>20161017</v>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Sienna</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>46.91</v>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="n"/>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="2">
+      <c r="A39" s="3" t="n">
+        <v>20161018</v>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Elsie</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="n"/>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="2">
+      <c r="A40" s="3" t="n">
+        <v>20161019</v>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Matilda</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="n"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="2">
+      <c r="A41" s="3" t="n">
+        <v>20161020</v>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Evelyn</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I41" s="3" t="n"/>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="2">
+      <c r="A42" s="3" t="n">
+        <v>20161021</v>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Maya</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>39.72</v>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="n"/>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="2">
+      <c r="A43" s="3" t="n">
+        <v>20161022</v>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Lola</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>69.82000000000001</v>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="n"/>
+    </row>
+    <row r="44" ht="15" customHeight="1" s="2">
+      <c r="A44" s="3" t="n">
+        <v>20161023</v>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>Bella</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>37.41999999999999</v>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="n"/>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="2">
+      <c r="A45" s="3" t="n">
+        <v>20161024</v>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Rosie</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>58.58</v>
+      </c>
+      <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I45" s="3" t="n"/>
+    </row>
+    <row r="46" ht="15" customHeight="1" s="2">
+      <c r="A46" s="3" t="n">
+        <v>20161025</v>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Holly</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="n"/>
+    </row>
+    <row r="47" ht="15" customHeight="1" s="2">
+      <c r="A47" s="3" t="n">
+        <v>20161026</v>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Millie</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>64.89999999999999</v>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I47" s="3" t="n"/>
+    </row>
+    <row r="48" ht="15" customHeight="1" s="2">
+      <c r="A48" s="3" t="n">
+        <v>20161027</v>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Annabelle</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I48" s="3" t="n"/>
+    </row>
+    <row r="49" ht="15" customHeight="1" s="2">
+      <c r="A49" s="3" t="n">
+        <v>20161028</v>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>Jasmine</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I49" s="3" t="n"/>
+    </row>
+    <row r="50" ht="15" customHeight="1" s="2">
+      <c r="A50" s="3" t="n">
+        <v>20161029</v>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>Imogen</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>70.19</v>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="n"/>
+    </row>
+    <row r="51" ht="15" customHeight="1" s="2">
+      <c r="A51" s="3" t="n">
+        <v>20161030</v>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I51" s="3" t="n"/>
+    </row>
+    <row r="52" ht="15" customHeight="1" s="2">
+      <c r="A52" s="3" t="n">
+        <v>20161031</v>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>38.27999999999999</v>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="n"/>
+    </row>
+    <row r="53" ht="15" customHeight="1" s="2">
+      <c r="A53" s="3" t="n">
+        <v>20161032</v>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>Ivy</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>77.63</v>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I53" s="3" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1" s="2">
+      <c r="A54" s="3" t="n">
+        <v>20161033</v>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Emilia</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>72.84</v>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="n"/>
+    </row>
+    <row r="55" ht="15" customHeight="1" s="2">
+      <c r="A55" s="3" t="n">
+        <v>20161034</v>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Rose</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I55" s="3" t="n"/>
+    </row>
+    <row r="56" ht="15" customHeight="1" s="2">
+      <c r="A56" s="3" t="n">
+        <v>20161035</v>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Eliza</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>47.34999999999999</v>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="n"/>
+    </row>
+    <row r="57" ht="15" customHeight="1" s="2">
+      <c r="A57" s="3" t="n">
+        <v>20161036</v>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>Layla</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>56.54</v>
+      </c>
+      <c r="H57" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I57" s="3" t="n"/>
+    </row>
+    <row r="58" ht="15" customHeight="1" s="2">
+      <c r="A58" s="3" t="n">
+        <v>20161037</v>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>Mila</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I58" s="3" t="n"/>
+    </row>
+    <row r="59" ht="15" customHeight="1" s="2">
+      <c r="A59" s="3" t="n">
+        <v>20161038</v>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>43.12</v>
+      </c>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I59" s="3" t="n"/>
+    </row>
+    <row r="60" ht="15" customHeight="1" s="2">
+      <c r="A60" s="3" t="n">
+        <v>20161039</v>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>Willow</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>58.88999999999999</v>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I60" s="3" t="n"/>
+    </row>
+    <row r="61" ht="15" customHeight="1" s="2">
+      <c r="A61" s="3" t="n">
+        <v>20161040</v>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>Amelie</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I61" s="3" t="n"/>
+    </row>
+    <row r="62" ht="15" customHeight="1" s="2">
+      <c r="A62" s="3" t="n">
+        <v>20161041</v>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>Maisie</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="F2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="3">
-      <c r="A3" s="5" t="n">
-        <v>20140002</v>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Lee</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="D62" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I62" s="3" t="n"/>
+    </row>
+    <row r="63" ht="15" customHeight="1" s="2">
+      <c r="A63" s="3" t="n">
+        <v>20161042</v>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>38.03</v>
+      </c>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I63" s="3" t="n"/>
+    </row>
+    <row r="64" ht="15" customHeight="1" s="2">
+      <c r="A64" s="3" t="n">
+        <v>20161043</v>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>Zara</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I64" s="3" t="n"/>
+    </row>
+    <row r="65" ht="15" customHeight="1" s="2">
+      <c r="A65" s="3" t="n">
+        <v>20161044</v>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>51.19</v>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I65" s="3" t="n"/>
+    </row>
+    <row r="66" ht="15" customHeight="1" s="2">
+      <c r="A66" s="3" t="n">
+        <v>20161045</v>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="H66" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I66" s="3" t="n"/>
+    </row>
+    <row r="67" ht="15" customHeight="1" s="2">
+      <c r="A67" s="3" t="n">
+        <v>20161046</v>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>Amber</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>41.48</v>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I67" s="3" t="n"/>
+    </row>
+    <row r="68" ht="15" customHeight="1" s="2">
+      <c r="A68" s="3" t="n">
+        <v>20161047</v>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>Harriet</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I68" s="3" t="n"/>
+    </row>
+    <row r="69" ht="15" customHeight="1" s="2">
+      <c r="A69" s="3" t="n">
+        <v>20161048</v>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>Violet</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>62.05</v>
+      </c>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I69" s="3" t="n"/>
+    </row>
+    <row r="70" ht="15" customHeight="1" s="2">
+      <c r="A70" s="3" t="n">
+        <v>20161049</v>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>79.16</v>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I70" s="3" t="n"/>
+    </row>
+    <row r="71" ht="15" customHeight="1" s="2">
+      <c r="A71" s="3" t="n">
+        <v>20161050</v>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Gracie</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="H71" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I71" s="3" t="n"/>
+    </row>
+    <row r="72" ht="15" customHeight="1" s="2">
+      <c r="A72" s="3" t="n">
+        <v>20161051</v>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>Leah</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>80.31999999999999</v>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I72" s="3" t="n"/>
+    </row>
+    <row r="73" ht="15" customHeight="1" s="2">
+      <c r="A73" s="3" t="n">
+        <v>20161052</v>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>Aria</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>36.34</v>
+      </c>
+      <c r="H73" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I73" s="3" t="n"/>
+    </row>
+    <row r="74" ht="15" customHeight="1" s="2">
+      <c r="A74" s="3" t="n">
+        <v>20161053</v>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>Thea</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D74" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="3">
-      <c r="A4" s="5" t="n">
-        <v>20140003</v>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="3">
-      <c r="A5" s="5" t="n">
-        <v>20140004</v>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Choi</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="E74" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="H74" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I74" s="3" t="n"/>
+    </row>
+    <row r="75" ht="15" customHeight="1" s="2">
+      <c r="A75" s="3" t="n">
+        <v>20161054</v>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>Lara</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="H75" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I75" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I2" s="3" t="n"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I3" s="3" t="n"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I4" s="3" t="n"/>
@@ -648,7 +648,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I6" s="3" t="n"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I7" s="3" t="n"/>
@@ -710,7 +710,7 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I8" s="3" t="n"/>
@@ -741,7 +741,7 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I9" s="3" t="n"/>
@@ -772,7 +772,7 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I10" s="3" t="n"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I12" s="3" t="n"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I13" s="3" t="n"/>
@@ -896,7 +896,7 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I14" s="3" t="n"/>
@@ -958,7 +958,7 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I16" s="3" t="n"/>
@@ -989,7 +989,7 @@
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I17" s="3" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I18" s="3" t="n"/>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I19" s="3" t="n"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I20" s="3" t="n"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I21" s="3" t="n"/>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I23" s="3" t="n"/>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I24" s="3" t="n"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I25" s="3" t="n"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I26" s="3" t="n"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I28" s="3" t="n"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I29" s="3" t="n"/>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I30" s="3" t="n"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I31" s="3" t="n"/>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I32" s="3" t="n"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="H33" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I33" s="3" t="n"/>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H34" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
       <c r="I34" s="3" t="n"/>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H36" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
       <c r="I36" s="3" t="n"/>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H39" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I39" s="3" t="n"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="H40" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
       <c r="I40" s="3" t="n"/>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="H41" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I41" s="3" t="n"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="H43" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
       <c r="I43" s="3" t="n"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="H44" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I44" s="3" t="n"/>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="H45" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I45" s="3" t="n"/>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="H46" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I46" s="3" t="n"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="H47" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
       <c r="I47" s="3" t="n"/>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="H48" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I48" s="3" t="n"/>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="H49" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I49" s="3" t="n"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="H50" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
       <c r="I50" s="3" t="n"/>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="H51" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I51" s="3" t="n"/>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H52" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I52" s="3" t="n"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="H53" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I53" s="3" t="n"/>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="H54" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I54" s="3" t="n"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I56" s="3" t="n"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="H57" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I57" s="3" t="n"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H58" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A0</t>
         </is>
       </c>
       <c r="I58" s="3" t="n"/>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="H59" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I59" s="3" t="n"/>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="H60" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I60" s="3" t="n"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="H61" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I61" s="3" t="n"/>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="H63" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I63" s="3" t="n"/>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="H64" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I64" s="3" t="n"/>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="H65" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I65" s="3" t="n"/>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="H67" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I67" s="3" t="n"/>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="H68" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A0</t>
         </is>
       </c>
       <c r="I68" s="3" t="n"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="H69" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A0</t>
         </is>
       </c>
       <c r="I69" s="3" t="n"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="H70" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I70" s="3" t="n"/>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="H72" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I72" s="3" t="n"/>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="H73" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I73" s="3" t="n"/>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="H74" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I74" s="3" t="n"/>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="H75" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I75" s="3" t="n"/>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -451,10 +451,10 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I12"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.56640625" defaultRowHeight="18.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="18.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>Grade</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -834,7 +834,7 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I12" s="3" t="n"/>
@@ -896,7 +896,7 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I14" s="3" t="n"/>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I42" s="3" t="n"/>
